--- a/Phân tích/Yêu cầu/Yêu cầu tiện dụng.xlsx
+++ b/Phân tích/Yêu cầu/Yêu cầu tiện dụng.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Homework\CN Phan Mem\Homework\CNPM\Phân tích\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNPM\Phân tích\Yêu cầu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A7344D-1A61-4B22-BD22-FEE177F048B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C092134-57B7-49FB-8A60-C61703184E96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{23119097-11F1-4AD8-B1C8-CE120ED7322E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{23119097-11F1-4AD8-B1C8-CE120ED7322E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +129,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -138,7 +143,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -146,29 +151,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,552 +518,579 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6554A0F9-D55B-441F-8429-827402F164D0}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.109375" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="9" max="9" width="31.109375" customWidth="1"/>
-    <col min="10" max="10" width="30.33203125" customWidth="1"/>
-    <col min="11" max="11" width="28.109375" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="H1" s="5" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="H3" s="1">
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="H3" s="5">
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="H4" s="1">
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="H4" s="5">
         <v>2</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="H5" s="1">
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="H5" s="5">
         <v>3</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4" t="s">
+      <c r="J5" s="7"/>
+      <c r="K5" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="H6" s="1">
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="H6" s="5">
         <v>4</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
+      <c r="J6" s="7"/>
+      <c r="K6" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="H7" s="1">
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="H7" s="5">
         <v>5</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4" t="s">
+      <c r="J7" s="7"/>
+      <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="H8" s="1">
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="H8" s="5">
         <v>6</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="H9" s="1">
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="H9" s="5">
         <v>7</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="H10" s="1">
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="H10" s="5">
         <v>8</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="H11" s="1">
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="H11" s="5">
         <v>9</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="H12" s="1">
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="H12" s="5">
         <v>10</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="4"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D37" s="4"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="11"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D37" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>